--- a/FILEDULIEUMAU_MEDS.xlsx
+++ b/FILEDULIEUMAU_MEDS.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viett\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B73A9F3C-8D78-4B66-87AD-489B0C0B0D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9DBC88EC-C207-4CB0-8687-F4F684BB3159}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="FILEMAU_MEDS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="29">
   <si>
     <t>NGAY</t>
   </si>
@@ -109,24 +108,27 @@
   </si>
   <si>
     <t>Sang</t>
+  </si>
+  <si>
+    <t>PHUTRACH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -480,30 +482,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14C194B-195A-41A7-ACFE-E91C90C0302E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="1" customWidth="1"/>
-    <col min="11" max="16383" width="9" style="1" hidden="1"/>
-    <col min="16384" max="16384" width="7.75" style="1" hidden="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="10" width="12.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -534,8 +535,11 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45665</v>
       </c>
@@ -557,9 +561,10 @@
       <c r="I2" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="5"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45665</v>
       </c>
@@ -583,9 +588,10 @@
       <c r="I3" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="5"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>45665</v>
       </c>
@@ -609,9 +615,10 @@
       <c r="I4" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="5"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>45665</v>
       </c>
@@ -635,9 +642,10 @@
       <c r="I5" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="5"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>45665</v>
       </c>
@@ -661,9 +669,10 @@
       <c r="I6" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="5"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>45665</v>
       </c>
@@ -683,9 +692,10 @@
       <c r="I7" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="5"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>45665</v>
       </c>
@@ -704,8 +714,9 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>45665</v>
       </c>
@@ -724,8 +735,9 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>45665</v>
       </c>
@@ -746,8 +758,9 @@
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>45665</v>
       </c>
@@ -768,8 +781,9 @@
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>45665</v>
       </c>
@@ -790,8 +804,9 @@
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>45665</v>
       </c>
@@ -812,8 +827,9 @@
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>45665</v>
       </c>
@@ -834,8 +850,9 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>45665</v>
       </c>
@@ -856,8 +873,9 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>45665</v>
       </c>
@@ -880,8 +898,9 @@
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>45665</v>
       </c>
@@ -904,8 +923,9 @@
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>45665</v>
       </c>
@@ -928,6 +948,7 @@
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
